--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_3973.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_3973.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3973</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mahamarakkala Kurukulasooriya Patabendige Akila Dananjaya</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>12/11/2012</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3449</t>
+          <t>3449</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>30/06/2017</t>
@@ -548,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4054</t>
+          <t>4054</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4060</t>
+          <t>4060</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4062</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4063</t>
+          <t>4063</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -756,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4064</t>
+          <t>4064</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -808,7 +871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4065</t>
+          <t>4065</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -860,7 +923,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4079</t>
+          <t>4079</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -912,7 +975,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4081</t>
+          <t>4081</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -964,7 +1027,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4082</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1016,7 +1079,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4084</t>
+          <t>4084</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1056,7 +1119,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>10/12/2017</t>
@@ -1064,7 +1126,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4096</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1116,7 +1178,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4098</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1168,7 +1230,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4099</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1220,7 +1282,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4112</t>
+          <t>4112</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1272,7 +1334,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4116</t>
+          <t>4116</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1312,7 +1374,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>21/01/2018</t>
@@ -1320,7 +1381,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4119</t>
+          <t>4119</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1360,7 +1421,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>25/01/2018</t>
@@ -1368,7 +1428,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4122</t>
+          <t>4122</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1420,7 +1480,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4124</t>
+          <t>4124</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1472,7 +1532,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4182</t>
+          <t>4182</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1524,7 +1584,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4183</t>
+          <t>4183</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1576,7 +1636,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4186</t>
+          <t>4186</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1628,7 +1688,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4187</t>
+          <t>4187</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1680,7 +1740,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4188</t>
+          <t>4188</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1732,7 +1792,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4195</t>
+          <t>4195</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1772,7 +1832,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>10/10/2018</t>
@@ -1780,7 +1839,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4209</t>
+          <t>4209</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1820,7 +1879,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>13/10/2018</t>
@@ -1828,7 +1886,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4210</t>
+          <t>4210</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1880,7 +1938,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4211</t>
+          <t>4211</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1932,7 +1990,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4212</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1984,7 +2042,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4215</t>
+          <t>4215</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2036,7 +2094,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4261</t>
+          <t>4261</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2088,7 +2146,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4264</t>
+          <t>4264</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2128,7 +2186,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>10/03/2019</t>
@@ -2136,7 +2193,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4269</t>
+          <t>4269</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2188,7 +2245,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4272</t>
+          <t>4272</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2228,7 +2285,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>28/07/2019</t>
@@ -2236,7 +2292,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4357</t>
+          <t>4357</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2288,7 +2344,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4358</t>
+          <t>4358</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2340,7 +2396,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4485</t>
+          <t>4485</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2392,7 +2448,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4487</t>
+          <t>4487</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2444,7 +2500,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4488</t>
+          <t>4488</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2483,7 +2539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2505,7 +2561,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2542,7 +2598,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4054</t>
+          <t>4054</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2579,7 +2635,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4060</t>
+          <t>4060</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2616,7 +2672,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4062</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2653,7 +2709,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4063</t>
+          <t>4063</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2690,7 +2746,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4064</t>
+          <t>4064</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2727,7 +2783,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4065</t>
+          <t>4065</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2764,7 +2820,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4079</t>
+          <t>4079</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2801,7 +2857,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4081</t>
+          <t>4081</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2838,7 +2894,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4082</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2875,7 +2931,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4084</t>
+          <t>4084</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2912,7 +2968,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4096</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2949,7 +3005,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4098</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2986,7 +3042,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4099</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3023,7 +3079,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4112</t>
+          <t>4112</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3060,7 +3116,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4116</t>
+          <t>4116</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3097,7 +3153,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4119</t>
+          <t>4119</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3134,7 +3190,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4124</t>
+          <t>4124</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3171,7 +3227,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4182</t>
+          <t>4182</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3208,7 +3264,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4183</t>
+          <t>4183</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3245,7 +3301,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4186</t>
+          <t>4186</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3282,7 +3338,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4187</t>
+          <t>4187</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3319,7 +3375,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4188</t>
+          <t>4188</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3356,7 +3412,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4195</t>
+          <t>4195</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3393,7 +3449,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4209</t>
+          <t>4209</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3430,7 +3486,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4210</t>
+          <t>4210</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3467,7 +3523,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4211</t>
+          <t>4211</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3504,7 +3560,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4212</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3541,7 +3597,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4215</t>
+          <t>4215</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3578,7 +3634,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4261</t>
+          <t>4261</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3615,7 +3671,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4264</t>
+          <t>4264</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3652,7 +3708,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4269</t>
+          <t>4269</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3689,7 +3745,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4272</t>
+          <t>4272</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3726,7 +3782,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4357</t>
+          <t>4357</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3763,7 +3819,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4358</t>
+          <t>4358</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3800,7 +3856,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4485</t>
+          <t>4485</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3837,7 +3893,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4487</t>
+          <t>4487</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3874,7 +3930,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4488</t>
+          <t>4488</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3900,6 +3956,555 @@
       <c r="G38" t="inlineStr">
         <is>
           <t>0/46</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4182</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5.70%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4183</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4186</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>12.98%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4187</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.33%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4188</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4195</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.27%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4209</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4210</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4211</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4.67%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4212</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>11.72%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4215</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>4.92%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4261</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4264</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2.90%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4269</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4272</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.33%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4357</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4358</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4485</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.20%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4487</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4488</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.52%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_3973.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_3973.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4046,15 +4047,501 @@
           <t>4183</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4186</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>12.98%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4187</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.33%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4188</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4195</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.27%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4209</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4210</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4211</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4.67%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4212</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>11.72%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4215</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>4.92%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4261</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4264</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2.90%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4269</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4272</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.33%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4357</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4358</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4485</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.20%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4487</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4488</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.52%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4182</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4183</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4062,27 +4549,14 @@
           <t>4186</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>8</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>12.98%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4092,27 +4566,14 @@
           <t>4187</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>9</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.33%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4124,13 +4585,6 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4138,27 +4592,14 @@
           <t>4195</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>9</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.27%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -4170,13 +4611,6 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4184,15 +4618,14 @@
           <t>4210</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4202,27 +4635,14 @@
           <t>4211</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>8</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.67%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4232,27 +4652,14 @@
           <t>4212</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>8</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>11.72%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -4262,27 +4669,14 @@
           <t>4215</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>8</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.92%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -4292,23 +4686,14 @@
           <t>4261</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>8</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4318,27 +4703,14 @@
           <t>4264</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>8</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.90%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4348,17 +4720,12 @@
           <t>4269</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>9</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4366,29 +4733,12 @@
           <t>4272</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.33%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4398,13 +4748,6 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4414,13 +4757,6 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4428,27 +4764,14 @@
           <t>4485</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>9</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.20%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -4458,23 +4781,14 @@
           <t>4487</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>10</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -4484,29 +4798,12 @@
           <t>4488</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>10</v>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.52%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_3973.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_3973.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -558,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>12/11/2012</t>
@@ -605,6 +604,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>30/06/2017</t>
@@ -1120,6 +1120,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>10/12/2017</t>
@@ -1375,6 +1376,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>21/01/2018</t>
@@ -1422,6 +1424,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>25/01/2018</t>
@@ -1833,6 +1836,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>10/10/2018</t>
@@ -1845,7 +1849,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1880,6 +1884,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>13/10/2018</t>
@@ -2187,6 +2192,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>10/03/2019</t>
@@ -2286,6 +2292,7 @@
           <t>35</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>28/07/2019</t>
@@ -3963,849 +3970,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4182</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5.70%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4183</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4186</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>12.98%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4187</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.33%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4188</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4195</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.27%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4209</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4210</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4211</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.67%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4212</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>11.72%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4215</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.92%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4261</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4264</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.90%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4269</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4272</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.33%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4357</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4358</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4485</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.20%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4487</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4488</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>10</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.52%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4182</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4183</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4186</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4187</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4188</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4195</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4209</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4210</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4211</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4212</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4215</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4261</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4264</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4269</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4272</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4357</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4358</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4485</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4487</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4488</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>